--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9445726587790693</v>
+        <v>0.9451964172203481</v>
       </c>
       <c r="E2">
-        <v>0.9445726587790693</v>
+        <v>0.9451964172203481</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1987116146307373</v>
+        <v>0.198670621546177</v>
       </c>
       <c r="E3">
-        <v>0.1987116146307373</v>
+        <v>0.198670621546177</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.09817927016016884</v>
+        <v>0.09849088316178693</v>
       </c>
       <c r="E4">
-        <v>0.09817927016016884</v>
+        <v>0.09849088316178693</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.01641122728523411</v>
+        <v>0.01640381964650117</v>
       </c>
       <c r="E5">
-        <v>0.01641122728523411</v>
+        <v>0.01640381964650117</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9977380983708308</v>
+        <v>0.9977345164798331</v>
       </c>
       <c r="E6">
-        <v>0.9977380983708308</v>
+        <v>0.9977345164798331</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9883220458224757</v>
+        <v>8.038708539708431E-09</v>
       </c>
       <c r="E7">
-        <v>0.01167795417752426</v>
+        <v>0.9999999919612914</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9858059673618565</v>
+        <v>0.8855441587576345</v>
       </c>
       <c r="E8">
-        <v>0.01419403263814345</v>
+        <v>0.1144558412423655</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9887987758303747</v>
+        <v>0.7476353367410732</v>
       </c>
       <c r="E9">
-        <v>0.01120122416962532</v>
+        <v>0.2523646632589268</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.988699814671697</v>
+        <v>0.9999999999999076</v>
       </c>
       <c r="E10">
-        <v>0.01130018532830301</v>
+        <v>9.237055564881302E-14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9864655830188882</v>
+        <v>0.9999999999988878</v>
       </c>
       <c r="E11">
-        <v>0.0135344169811118</v>
+        <v>1.112221426069482E-12</v>
       </c>
       <c r="F11">
-        <v>0.9387950897216797</v>
+        <v>2.838706493377686</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9314835810447885</v>
+        <v>0.9305774426306326</v>
       </c>
       <c r="E12">
-        <v>0.9314835810447885</v>
+        <v>0.9305774426306326</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5946099487028272</v>
+        <v>0.5946164193341191</v>
       </c>
       <c r="E13">
-        <v>0.5946099487028272</v>
+        <v>0.5946164193341191</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9999790525512657</v>
+        <v>0.9999789488642293</v>
       </c>
       <c r="E14">
-        <v>0.9999790525512657</v>
+        <v>0.9999789488642293</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0003701294150148567</v>
+        <v>0.0003701840933868708</v>
       </c>
       <c r="E15">
-        <v>0.0003701294150148567</v>
+        <v>0.0003701840933868708</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9998410160735141</v>
+        <v>0.9998409436939637</v>
       </c>
       <c r="E16">
-        <v>0.9998410160735141</v>
+        <v>0.9998409436939637</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9995054582104946</v>
+        <v>2.514573359719146E-12</v>
       </c>
       <c r="E17">
-        <v>0.000494541789505365</v>
+        <v>0.9999999999974855</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9993503883886953</v>
+        <v>0.9990400249706943</v>
       </c>
       <c r="E18">
-        <v>0.0006496116113047234</v>
+        <v>0.0009599750293056708</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9995313668119339</v>
+        <v>0.9160398977756273</v>
       </c>
       <c r="E19">
-        <v>0.0004686331880661143</v>
+        <v>0.08396010222437267</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9995233351989949</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.0004766648010050556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9993803521922415</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.0006196478077584722</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2.310686826705933</v>
+        <v>4.988322257995605</v>
       </c>
       <c r="G21">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
